--- a/natmiOut/OldD7/LR-pairs_lrc2p/Bmp2-Rgmb.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Bmp2-Rgmb.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.78021944531617</v>
+        <v>5.423951666666667</v>
       </c>
       <c r="H2">
-        <v>2.78021944531617</v>
+        <v>16.271855</v>
       </c>
       <c r="I2">
-        <v>0.4265660676469394</v>
+        <v>0.4774188439413272</v>
       </c>
       <c r="J2">
-        <v>0.4265660676469394</v>
+        <v>0.4774188439413271</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.6786558741228</v>
+        <v>14.80997966666667</v>
       </c>
       <c r="N2">
-        <v>13.6786558741228</v>
+        <v>44.429939</v>
       </c>
       <c r="O2">
-        <v>0.2345406905449722</v>
+        <v>0.2388798507865045</v>
       </c>
       <c r="P2">
-        <v>0.2345406905449722</v>
+        <v>0.2388798507865045</v>
       </c>
       <c r="Q2">
-        <v>38.02966504702446</v>
+        <v>80.32861389631611</v>
       </c>
       <c r="R2">
-        <v>38.02966504702446</v>
+        <v>722.9575250668451</v>
       </c>
       <c r="S2">
-        <v>0.1000471000689665</v>
+        <v>0.1140457422033697</v>
       </c>
       <c r="T2">
-        <v>0.1000471000689665</v>
+        <v>0.1140457422033697</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.78021944531617</v>
+        <v>5.423951666666667</v>
       </c>
       <c r="H3">
-        <v>2.78021944531617</v>
+        <v>16.271855</v>
       </c>
       <c r="I3">
-        <v>0.4265660676469394</v>
+        <v>0.4774188439413272</v>
       </c>
       <c r="J3">
-        <v>0.4265660676469394</v>
+        <v>0.4774188439413271</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>33.1753244998922</v>
+        <v>33.42883866666667</v>
       </c>
       <c r="N3">
-        <v>33.1753244998922</v>
+        <v>100.286516</v>
       </c>
       <c r="O3">
-        <v>0.5688397740876158</v>
+        <v>0.5391956081231261</v>
       </c>
       <c r="P3">
-        <v>0.5688397740876158</v>
+        <v>0.5391956081231262</v>
       </c>
       <c r="Q3">
-        <v>92.23468227927422</v>
+        <v>181.3164052007978</v>
       </c>
       <c r="R3">
-        <v>92.23468227927422</v>
+        <v>1631.84764680718</v>
       </c>
       <c r="S3">
-        <v>0.2426477455537276</v>
+        <v>0.2574221438883837</v>
       </c>
       <c r="T3">
-        <v>0.2426477455537276</v>
+        <v>0.2574221438883837</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.78021944531617</v>
+        <v>5.423951666666667</v>
       </c>
       <c r="H4">
-        <v>2.78021944531617</v>
+        <v>16.271855</v>
       </c>
       <c r="I4">
-        <v>0.4265660676469394</v>
+        <v>0.4774188439413272</v>
       </c>
       <c r="J4">
-        <v>0.4265660676469394</v>
+        <v>0.4774188439413271</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.27762141176951</v>
+        <v>2.509909333333333</v>
       </c>
       <c r="N4">
-        <v>2.27762141176951</v>
+        <v>7.529728</v>
       </c>
       <c r="O4">
-        <v>0.03905317186369329</v>
+        <v>0.04048396962919451</v>
       </c>
       <c r="P4">
-        <v>0.03905317186369329</v>
+        <v>0.04048396962919452</v>
       </c>
       <c r="Q4">
-        <v>6.332287338070059</v>
+        <v>13.61362691171555</v>
       </c>
       <c r="R4">
-        <v>6.332287338070059</v>
+        <v>122.52264220544</v>
       </c>
       <c r="S4">
-        <v>0.01665875795103574</v>
+        <v>0.01932780997852585</v>
       </c>
       <c r="T4">
-        <v>0.01665875795103574</v>
+        <v>0.01932780997852585</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.78021944531617</v>
+        <v>5.423951666666667</v>
       </c>
       <c r="H5">
-        <v>2.78021944531617</v>
+        <v>16.271855</v>
       </c>
       <c r="I5">
-        <v>0.4265660676469394</v>
+        <v>0.4774188439413272</v>
       </c>
       <c r="J5">
-        <v>0.4265660676469394</v>
+        <v>0.4774188439413271</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.189433435606951</v>
+        <v>11.24888166666667</v>
       </c>
       <c r="N5">
-        <v>9.189433435606951</v>
+        <v>33.746645</v>
       </c>
       <c r="O5">
-        <v>0.1575663635037187</v>
+        <v>0.1814405714611748</v>
       </c>
       <c r="P5">
-        <v>0.1575663635037187</v>
+        <v>0.1814405714611748</v>
       </c>
       <c r="Q5">
-        <v>25.54864152911302</v>
+        <v>61.01339046405278</v>
       </c>
       <c r="R5">
-        <v>25.54864152911302</v>
+        <v>549.120514176475</v>
       </c>
       <c r="S5">
-        <v>0.06721246407320954</v>
+        <v>0.08662314787104784</v>
       </c>
       <c r="T5">
-        <v>0.06721246407320954</v>
+        <v>0.08662314787104784</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.5538614623364</v>
+        <v>1.583504333333333</v>
       </c>
       <c r="H6">
-        <v>1.5538614623364</v>
+        <v>4.750513</v>
       </c>
       <c r="I6">
-        <v>0.2384072864369107</v>
+        <v>0.1393808158066948</v>
       </c>
       <c r="J6">
-        <v>0.2384072864369107</v>
+        <v>0.1393808158066948</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.6786558741228</v>
+        <v>14.80997966666667</v>
       </c>
       <c r="N6">
-        <v>13.6786558741228</v>
+        <v>44.429939</v>
       </c>
       <c r="O6">
-        <v>0.2345406905449722</v>
+        <v>0.2388798507865045</v>
       </c>
       <c r="P6">
-        <v>0.2345406905449722</v>
+        <v>0.2388798507865045</v>
       </c>
       <c r="Q6">
-        <v>21.25473621936084</v>
+        <v>23.45166697874522</v>
       </c>
       <c r="R6">
-        <v>21.25473621936084</v>
+        <v>211.065002808707</v>
       </c>
       <c r="S6">
-        <v>0.05591620959186602</v>
+        <v>0.03329526848240453</v>
       </c>
       <c r="T6">
-        <v>0.05591620959186602</v>
+        <v>0.03329526848240452</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.5538614623364</v>
+        <v>1.583504333333333</v>
       </c>
       <c r="H7">
-        <v>1.5538614623364</v>
+        <v>4.750513</v>
       </c>
       <c r="I7">
-        <v>0.2384072864369107</v>
+        <v>0.1393808158066948</v>
       </c>
       <c r="J7">
-        <v>0.2384072864369107</v>
+        <v>0.1393808158066948</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.1753244998922</v>
+        <v>33.42883866666667</v>
       </c>
       <c r="N7">
-        <v>33.1753244998922</v>
+        <v>100.286516</v>
       </c>
       <c r="O7">
-        <v>0.5688397740876158</v>
+        <v>0.5391956081231261</v>
       </c>
       <c r="P7">
-        <v>0.5688397740876158</v>
+        <v>0.5391956081231262</v>
       </c>
       <c r="Q7">
-        <v>51.54985824088709</v>
+        <v>52.93471088696756</v>
       </c>
       <c r="R7">
-        <v>51.54985824088709</v>
+        <v>476.412397982708</v>
       </c>
       <c r="S7">
-        <v>0.1356155469576138</v>
+        <v>0.07515352373958822</v>
       </c>
       <c r="T7">
-        <v>0.1356155469576138</v>
+        <v>0.07515352373958824</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.5538614623364</v>
+        <v>1.583504333333333</v>
       </c>
       <c r="H8">
-        <v>1.5538614623364</v>
+        <v>4.750513</v>
       </c>
       <c r="I8">
-        <v>0.2384072864369107</v>
+        <v>0.1393808158066948</v>
       </c>
       <c r="J8">
-        <v>0.2384072864369107</v>
+        <v>0.1393808158066948</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.27762141176951</v>
+        <v>2.509909333333333</v>
       </c>
       <c r="N8">
-        <v>2.27762141176951</v>
+        <v>7.529728</v>
       </c>
       <c r="O8">
-        <v>0.03905317186369329</v>
+        <v>0.04048396962919451</v>
       </c>
       <c r="P8">
-        <v>0.03905317186369329</v>
+        <v>0.04048396962919452</v>
       </c>
       <c r="Q8">
-        <v>3.539108137540866</v>
+        <v>3.974452305607111</v>
       </c>
       <c r="R8">
-        <v>3.539108137540866</v>
+        <v>35.770070750464</v>
       </c>
       <c r="S8">
-        <v>0.009310560730777425</v>
+        <v>0.005642688714010587</v>
       </c>
       <c r="T8">
-        <v>0.009310560730777425</v>
+        <v>0.005642688714010587</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.5538614623364</v>
+        <v>1.583504333333333</v>
       </c>
       <c r="H9">
-        <v>1.5538614623364</v>
+        <v>4.750513</v>
       </c>
       <c r="I9">
-        <v>0.2384072864369107</v>
+        <v>0.1393808158066948</v>
       </c>
       <c r="J9">
-        <v>0.2384072864369107</v>
+        <v>0.1393808158066948</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.189433435606951</v>
+        <v>11.24888166666667</v>
       </c>
       <c r="N9">
-        <v>9.189433435606951</v>
+        <v>33.746645</v>
       </c>
       <c r="O9">
-        <v>0.1575663635037187</v>
+        <v>0.1814405714611748</v>
       </c>
       <c r="P9">
-        <v>0.1575663635037187</v>
+        <v>0.1814405714611748</v>
       </c>
       <c r="Q9">
-        <v>14.27910647629522</v>
+        <v>17.81265286432055</v>
       </c>
       <c r="R9">
-        <v>14.27910647629522</v>
+        <v>160.313875778885</v>
       </c>
       <c r="S9">
-        <v>0.03756496915665346</v>
+        <v>0.02528933487069145</v>
       </c>
       <c r="T9">
-        <v>0.03756496915665346</v>
+        <v>0.02528933487069145</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.59625752450706</v>
+        <v>0.6660723333333333</v>
       </c>
       <c r="H10">
-        <v>0.59625752450706</v>
+        <v>1.998217</v>
       </c>
       <c r="I10">
-        <v>0.09148314819622125</v>
+        <v>0.05862800830537802</v>
       </c>
       <c r="J10">
-        <v>0.09148314819622125</v>
+        <v>0.05862800830537802</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.6786558741228</v>
+        <v>14.80997966666667</v>
       </c>
       <c r="N10">
-        <v>13.6786558741228</v>
+        <v>44.429939</v>
       </c>
       <c r="O10">
-        <v>0.2345406905449722</v>
+        <v>0.2388798507865045</v>
       </c>
       <c r="P10">
-        <v>0.2345406905449722</v>
+        <v>0.2388798507865045</v>
       </c>
       <c r="Q10">
-        <v>8.156001490088416</v>
+        <v>9.864517713195889</v>
       </c>
       <c r="R10">
-        <v>8.156001490088416</v>
+        <v>88.78065941876301</v>
       </c>
       <c r="S10">
-        <v>0.02145652075116976</v>
+        <v>0.01400504987589865</v>
       </c>
       <c r="T10">
-        <v>0.02145652075116976</v>
+        <v>0.01400504987589865</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.59625752450706</v>
+        <v>0.6660723333333333</v>
       </c>
       <c r="H11">
-        <v>0.59625752450706</v>
+        <v>1.998217</v>
       </c>
       <c r="I11">
-        <v>0.09148314819622125</v>
+        <v>0.05862800830537802</v>
       </c>
       <c r="J11">
-        <v>0.09148314819622125</v>
+        <v>0.05862800830537802</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>33.1753244998922</v>
+        <v>33.42883866666667</v>
       </c>
       <c r="N11">
-        <v>33.1753244998922</v>
+        <v>100.286516</v>
       </c>
       <c r="O11">
-        <v>0.5688397740876158</v>
+        <v>0.5391956081231261</v>
       </c>
       <c r="P11">
-        <v>0.5688397740876158</v>
+        <v>0.5391956081231262</v>
       </c>
       <c r="Q11">
-        <v>19.78103686102414</v>
+        <v>22.26602457133022</v>
       </c>
       <c r="R11">
-        <v>19.78103686102414</v>
+        <v>200.394221141972</v>
       </c>
       <c r="S11">
-        <v>0.05203925335276237</v>
+        <v>0.03161196459126599</v>
       </c>
       <c r="T11">
-        <v>0.05203925335276237</v>
+        <v>0.03161196459126599</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.59625752450706</v>
+        <v>0.6660723333333333</v>
       </c>
       <c r="H12">
-        <v>0.59625752450706</v>
+        <v>1.998217</v>
       </c>
       <c r="I12">
-        <v>0.09148314819622125</v>
+        <v>0.05862800830537802</v>
       </c>
       <c r="J12">
-        <v>0.09148314819622125</v>
+        <v>0.05862800830537802</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.27762141176951</v>
+        <v>2.509909333333333</v>
       </c>
       <c r="N12">
-        <v>2.27762141176951</v>
+        <v>7.529728</v>
       </c>
       <c r="O12">
-        <v>0.03905317186369329</v>
+        <v>0.04048396962919451</v>
       </c>
       <c r="P12">
-        <v>0.03905317186369329</v>
+        <v>0.04048396962919452</v>
       </c>
       <c r="Q12">
-        <v>1.358048904745963</v>
+        <v>1.671781166108444</v>
       </c>
       <c r="R12">
-        <v>1.358048904745963</v>
+        <v>15.046030494976</v>
       </c>
       <c r="S12">
-        <v>0.003572707109138751</v>
+        <v>0.002373494507655088</v>
       </c>
       <c r="T12">
-        <v>0.003572707109138751</v>
+        <v>0.002373494507655088</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.59625752450706</v>
+        <v>0.6660723333333333</v>
       </c>
       <c r="H13">
-        <v>0.59625752450706</v>
+        <v>1.998217</v>
       </c>
       <c r="I13">
-        <v>0.09148314819622125</v>
+        <v>0.05862800830537802</v>
       </c>
       <c r="J13">
-        <v>0.09148314819622125</v>
+        <v>0.05862800830537802</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.189433435606951</v>
+        <v>11.24888166666667</v>
       </c>
       <c r="N13">
-        <v>9.189433435606951</v>
+        <v>33.746645</v>
       </c>
       <c r="O13">
-        <v>0.1575663635037187</v>
+        <v>0.1814405714611748</v>
       </c>
       <c r="P13">
-        <v>0.1575663635037187</v>
+        <v>0.1814405714611748</v>
       </c>
       <c r="Q13">
-        <v>5.479268831937408</v>
+        <v>7.492568859107222</v>
       </c>
       <c r="R13">
-        <v>5.479268831937408</v>
+        <v>67.43311973196499</v>
       </c>
       <c r="S13">
-        <v>0.01441466698315037</v>
+        <v>0.01063749933055829</v>
       </c>
       <c r="T13">
-        <v>0.01441466698315037</v>
+        <v>0.01063749933055829</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.58733762363322</v>
+        <v>3.687463666666666</v>
       </c>
       <c r="H14">
-        <v>1.58733762363322</v>
+        <v>11.062391</v>
       </c>
       <c r="I14">
-        <v>0.2435434977199288</v>
+        <v>0.3245723319466</v>
       </c>
       <c r="J14">
-        <v>0.2435434977199288</v>
+        <v>0.3245723319466</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.6786558741228</v>
+        <v>14.80997966666667</v>
       </c>
       <c r="N14">
-        <v>13.6786558741228</v>
+        <v>44.429939</v>
       </c>
       <c r="O14">
-        <v>0.2345406905449722</v>
+        <v>0.2388798507865045</v>
       </c>
       <c r="P14">
-        <v>0.2345406905449722</v>
+        <v>0.2388798507865045</v>
       </c>
       <c r="Q14">
-        <v>21.71264510972667</v>
+        <v>54.61126192490545</v>
       </c>
       <c r="R14">
-        <v>21.71264510972667</v>
+        <v>491.5013573241491</v>
       </c>
       <c r="S14">
-        <v>0.05712086013296996</v>
+        <v>0.0775337902248316</v>
       </c>
       <c r="T14">
-        <v>0.05712086013296996</v>
+        <v>0.07753379022483162</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.58733762363322</v>
+        <v>3.687463666666666</v>
       </c>
       <c r="H15">
-        <v>1.58733762363322</v>
+        <v>11.062391</v>
       </c>
       <c r="I15">
-        <v>0.2435434977199288</v>
+        <v>0.3245723319466</v>
       </c>
       <c r="J15">
-        <v>0.2435434977199288</v>
+        <v>0.3245723319466</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>33.1753244998922</v>
+        <v>33.42883866666667</v>
       </c>
       <c r="N15">
-        <v>33.1753244998922</v>
+        <v>100.286516</v>
       </c>
       <c r="O15">
-        <v>0.5688397740876158</v>
+        <v>0.5391956081231261</v>
       </c>
       <c r="P15">
-        <v>0.5688397740876158</v>
+        <v>0.5391956081231262</v>
       </c>
       <c r="Q15">
-        <v>52.66044075491983</v>
+        <v>123.2676280021951</v>
       </c>
       <c r="R15">
-        <v>52.66044075491983</v>
+        <v>1109.408652019756</v>
       </c>
       <c r="S15">
-        <v>0.138537228223512</v>
+        <v>0.1750079759038881</v>
       </c>
       <c r="T15">
-        <v>0.138537228223512</v>
+        <v>0.1750079759038881</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.58733762363322</v>
+        <v>3.687463666666666</v>
       </c>
       <c r="H16">
-        <v>1.58733762363322</v>
+        <v>11.062391</v>
       </c>
       <c r="I16">
-        <v>0.2435434977199288</v>
+        <v>0.3245723319466</v>
       </c>
       <c r="J16">
-        <v>0.2435434977199288</v>
+        <v>0.3245723319466</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.27762141176951</v>
+        <v>2.509909333333333</v>
       </c>
       <c r="N16">
-        <v>2.27762141176951</v>
+        <v>7.529728</v>
       </c>
       <c r="O16">
-        <v>0.03905317186369329</v>
+        <v>0.04048396962919451</v>
       </c>
       <c r="P16">
-        <v>0.03905317186369329</v>
+        <v>0.04048396962919452</v>
       </c>
       <c r="Q16">
-        <v>3.615354159294354</v>
+        <v>9.255199473294221</v>
       </c>
       <c r="R16">
-        <v>3.615354159294354</v>
+        <v>83.29679525964801</v>
       </c>
       <c r="S16">
-        <v>0.009511146072741372</v>
+        <v>0.01313997642900299</v>
       </c>
       <c r="T16">
-        <v>0.009511146072741372</v>
+        <v>0.01313997642900299</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.58733762363322</v>
+        <v>3.687463666666666</v>
       </c>
       <c r="H17">
-        <v>1.58733762363322</v>
+        <v>11.062391</v>
       </c>
       <c r="I17">
-        <v>0.2435434977199288</v>
+        <v>0.3245723319466</v>
       </c>
       <c r="J17">
-        <v>0.2435434977199288</v>
+        <v>0.3245723319466</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.189433435606951</v>
+        <v>11.24888166666667</v>
       </c>
       <c r="N17">
-        <v>9.189433435606951</v>
+        <v>33.746645</v>
       </c>
       <c r="O17">
-        <v>0.1575663635037187</v>
+        <v>0.1814405714611748</v>
       </c>
       <c r="P17">
-        <v>0.1575663635037187</v>
+        <v>0.1814405714611748</v>
       </c>
       <c r="Q17">
-        <v>14.58673343221199</v>
+        <v>41.47984243646611</v>
       </c>
       <c r="R17">
-        <v>14.58673343221199</v>
+        <v>373.318581928195</v>
       </c>
       <c r="S17">
-        <v>0.03837426329070539</v>
+        <v>0.05889058938887722</v>
       </c>
       <c r="T17">
-        <v>0.03837426329070539</v>
+        <v>0.05889058938887723</v>
       </c>
     </row>
   </sheetData>
